--- a/dataset/allMatchVideoDetail/2013/2013_616_season_highlights.xlsx
+++ b/dataset/allMatchVideoDetail/2013/2013_616_season_highlights.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +437,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>match_number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>toss</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>match_link</t>
         </is>
@@ -457,15 +462,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Match 2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Royal Challengers Bangalore won by 2 runs</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Mumbai Indians, who chose to field</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/e7a022b71e87483bb786af377afdc6a8/m2-rcb-vs-mi-match-highlights</t>
         </is>
@@ -477,15 +487,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Match 3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Sunrisers Hyderabad won by 22 runs</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Pune Warriors India, who chose to field</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/922d5609beec4a81bff0ae7dab85d209/m3-srh-vs-pwi-match-highlights</t>
         </is>
@@ -497,15 +512,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Match 4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Rajasthan Royals won by 5 runs</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Rajasthan Royals, who chose to bat</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/94a44de5e41d4768b84340ca197ae4e8/m4-dd-vs-rr-match-highlights</t>
         </is>
@@ -517,15 +537,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Match 5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Mumbai Indians won by 9 runs</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Mumbai Indians, who chose to bat</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/42a506e1ff934bf5b2d2710dd9ab5474/m5-csk-vs-mi-match-highlights</t>
         </is>
@@ -537,15 +562,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Match 6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Kings XI Punjab won by 8 wickets</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Pune Warriors India, who chose to bat</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/0d9b0b8b92ab48339203517fcbb657a9/m6-pwi-vs-kxip-match-highlights</t>
         </is>
@@ -557,15 +587,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Match 7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Match Tied (Sunrisers Hyderabad won Super Over)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Royal Challengers Banaglore, who chose to bat</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/6407248712484d7f86bf930af34fd864/m7-srh-vs-rcb-match-highlights</t>
         </is>
@@ -577,15 +612,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Match 8</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Rajasthan Royals won by 19 runs</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Kolkata Knight Riders, who chose to field</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/7d944a594fbe4fafa3a4d00c860962b1/m8-rr-vs-kkr-match-highlights</t>
         </is>
@@ -597,15 +637,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Match 9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Royal Challengers Bangalore won by 7 wickets</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Sunrisers Hyderabad, who chose to bat</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/88b9b5595d9c4d39bb952520b3bd7299/m9-rcb-vs-srh-match-highlights</t>
         </is>
@@ -617,15 +662,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Match 10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Mumbai Indians won by 44 runs</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Mumbai Indians, who chose to bat</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/e9c4bdf9fba54f3da10417be727c025b/m10-mi-vs-dd-match-highlights</t>
         </is>
@@ -637,15 +687,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Match 11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Chennai Super Kings won by 10 wickets</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Chennai Super Kings, who chose to field</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/24b37c0fba074c2bbe86372333d294fe/m11-kxip-vs-csk-match-highlights</t>
         </is>
@@ -657,15 +712,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Match 12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Royal Challengers Bangalore won by 8 wickets</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Royal Challengers Bangalore, who chose to field</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/a81cf531c8ff4b118837b14c8ad653ff/m12-rcb-vs-kkr-match-highlights</t>
         </is>
@@ -677,15 +737,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Match 13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Pune Warriors India won by 7 wickets</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Rajasthan Royals, who chose to bat</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/1e837bafa64e4d45b56493b755575769/m13-pwi-vs-rr-match-highlights</t>
         </is>
@@ -697,15 +762,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Match 14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Sunrisers Hyderabad won by 3 wickets</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Delhi Daredevils, who chose to bat</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/3f835e10d1a14f19b977708cad00dc01/m14-dd-vs-srh-match-highlights</t>
         </is>
@@ -717,15 +787,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Match 15</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Mumbai Indians won by 41 runs</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Mumbai Indians, who chose to bat</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/2fe667908e1a4e1fa384dc9e8f5a427b/m15-mi-vs-pwi-match-highlights</t>
         </is>
@@ -737,15 +812,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Match 16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Chennai Super Kings won by 4 wickets</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Chennai Super Kings, who chose to field</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/7948f4fd3bb54250a18ed47ff2706bd5/m16-csk-vs-rcb-match-highlights</t>
         </is>
@@ -757,15 +837,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Match 17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Kolkata Knight Riders won by 48 runs</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Kolkata Knight Riders, who chose to bat</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/a3679d75e3e44e5fae0792f4dbddfaf4/m17-kkr-vs-srh-match-highlights</t>
         </is>
@@ -777,15 +862,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Match 18</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Rajasthan Royals won by 6 wickets</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Rajasthan Royals, who chose to field</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/7f7269c71c784dd9b7943cc3dc824100/m18-rr-vs-kxip-match-highlights</t>
         </is>
@@ -797,15 +887,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Match 19</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Pune Warriors India won by 24 runs</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Pune Warriors India, who chose to bat</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/69f83445742d4c59b60a9a4f6535e419/m19-csk-vs-pwi-match-highlights</t>
         </is>
@@ -817,15 +912,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Match 20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Kings XI Punjab won by 4 runs</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Kolkata Knights Riders, who chose to field</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/d79cd9b3cda74f3ba1ca11e3cb11e337/m20-kxip-vs-kkr-match-highlights</t>
         </is>
@@ -837,15 +937,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Match 21</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Match Tied (Royal Challengers Bangalore won Super Over)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Royal Challengers Bangalore, who chose to field</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/a7367ef2f4cd4672af1af325fabf20d7/m21-rcb-vs-dd-match-highlights</t>
         </is>
@@ -857,15 +962,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Match 22</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Sunrisers Hyderabad won by 11 runs</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Pune Warriors India, who chose to field</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/d41dcc9d37864c8799726f313c1da253/m22-pwi-vs-srh-match-highlights</t>
         </is>
@@ -877,15 +987,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Match 23</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Rajasthan Royals won by 87 runs</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Rajasthan Royals, who chose to bat</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/9bc89e1fe5cf403c806114a9cecfb533/m23-rr-vs-mi-match-highlights</t>
         </is>
@@ -897,15 +1012,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Match 24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Chennai Super Kings won by 86 runs</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Chennai Super Kings, who chose to bat</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/daf208d7e29041f0814ac7148498ed07/m24-dd-vs-csk-match-highlights</t>
         </is>
@@ -917,15 +1037,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Match 25</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Sunrisers Hyderabad won by 5 wickets</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Kings XI Punjab, who chose to bat</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/45603bae54454fc78e11be6457fba319/m25-srh-vs-kxip-match-highlights</t>
         </is>
@@ -937,15 +1062,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Match 26</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Chennai Super Kings won by 4 wickets</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Kolkata Knight Riders, who chose to bat</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/3427a15026244b5e9d52c9f8f8bff767/m26-kkr-vs-csk-match-highlights</t>
         </is>
@@ -957,15 +1087,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Match 27</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Royal Challengers Bangalore won by 7 wickets</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Royal Challengers Bangalore, who chose to field</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/cd07144fc76d420b9345547bbdf25726/m27-rcb-vs-rr-match-highlights</t>
         </is>
@@ -977,15 +1112,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Match 28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Delhi Capitals won by 9 wickets</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Mumbai Indians, who chose to bat</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/7a2721f56973403a9b8c1e235ff9a80f/m28-dd-vs-mi-match-highlights</t>
         </is>
@@ -997,15 +1137,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Match 29</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Kings XI Punjab won by 7 wickets</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Kings XI Punjab, who chose to field</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/4fd28e6e68e34aca8b4c29d8320edbcf/m29-kxip-vs-pwi-match-highlights</t>
         </is>
@@ -1017,15 +1162,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Match 30</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Chennai Super Kings won by 5 wickets</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Rajasthan Royals, who chose to bat</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/58a60bc3bd2c4f109f0e57e5e94d5aa2/m30-csk-vs-rr-match-highlights</t>
         </is>
@@ -1037,15 +1187,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Match 31</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Royal Challengers Bangalore won by 130 runs</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Pune Warriors India, who chose to field</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/af462b7454c043eaa380ea21480a02e3/m31-rcb-vs-pwi-match-highlights</t>
         </is>
@@ -1057,15 +1212,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Match 32</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Kings XI Punjab won by 5 wickets</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Kings XI Punjab, who chose to field</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/57fc749b7b574d208e7eb25101114c6d/m32-dd-vs-kxip-match-highlights</t>
         </is>
@@ -1077,15 +1237,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Match 33</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Mumbai Indians won by 5 wickets</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Kolkata Knight Riders, who chose to bat</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/f40fd4c828d3492e8c3ca225bcb1dbac/m33-kkr-vs-mi-match-highlights</t>
         </is>
@@ -1097,15 +1262,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Match 34</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Chennai Super Kings won by 5 wickets</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Sunrisers Hyderabad, who chose to bat</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/9a16be533e2349898804ecce73be0387/m34-csk-vs-srh-match-highlights</t>
         </is>
@@ -1117,15 +1287,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Match 35</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Kolkata Knight Riders won by 6 wickets</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Kings XI Punjab, who chose to bat</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>http://iplt20.com/videos/media/id/ed2552c6d2ff46fa8555c329675cad2b/m35-kkr-vs-kxip-match-highlights</t>
         </is>
@@ -1137,15 +1312,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Match 36</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Rajasthan Royals won by 8 wickets</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Sunrisers Hyderabad, who chose to bat</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>http://www.iplt20.com/videos/media/id/8eb792b64a7741f2806654f27f344218/m36-rr-vs-srh-match-highlights</t>
         </is>
